--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-435" yWindow="-225" windowWidth="20490" windowHeight="7890" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -559,9 +559,6 @@
     <t>Imagen que diga 0,7 metros</t>
   </si>
   <si>
-    <t xml:space="preserve">Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original. </t>
-  </si>
-  <si>
     <t>Se debe agregar una v en el eje vertical y una t en el eje horizontal a la imagen original.</t>
   </si>
   <si>
@@ -581,6 +578,28 @@
   </si>
   <si>
     <t>Imagen que diga 3,1 metros</t>
+  </si>
+  <si>
+    <r>
+      <t>Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Century Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> By Grafico_pv_del_MRU.jpg: SergioN derivative work: Robot8A (Grafico_pv_del_MRU.jpg) [CC BY 3.0 (http://creativecommons.org/licenses/by/3.0) or GFDL (http://www.gnu.org/copyleft/fdl.html)], via Wikimedia Commons </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -590,7 +609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,6 +756,11 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -995,11 +1019,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1008,7 +1032,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1016,17 +1040,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1036,7 +1060,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1044,12 +1068,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,18 +1082,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,11 +1123,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1113,10 +1137,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1126,7 +1150,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1200,16 +1224,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,23 +1241,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,7 +1275,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1304,8 +1328,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1613,8 +1638,11 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1666,6 +1694,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1752,15 +1781,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1793,15 +1822,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1834,15 +1863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1877,13 +1906,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1916,15 +1945,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1957,15 +1986,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1998,15 +2027,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2359,33 +2388,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="100.375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="74.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="100.33203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="74.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2397,7 +2426,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2414,7 +2443,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2431,7 +2460,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2452,7 +2481,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2474,7 +2503,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2487,7 +2516,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="34" t="s">
         <v>40</v>
@@ -2505,7 +2534,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="D8" s="11"/>
@@ -2524,7 +2553,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
@@ -2559,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="94" customHeight="1">
       <c r="A10" s="76" t="s">
         <v>153</v>
       </c>
@@ -2595,11 +2624,11 @@
       <c r="J10" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="76" t="s">
         <v>154</v>
       </c>
@@ -2637,7 +2666,7 @@
       </c>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A12" s="76" t="s">
         <v>157</v>
       </c>
@@ -2675,7 +2704,7 @@
       </c>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A13" s="76" t="s">
         <v>160</v>
       </c>
@@ -2713,7 +2742,7 @@
       </c>
       <c r="K13" s="78"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75">
       <c r="A14" s="76" t="s">
         <v>161</v>
       </c>
@@ -2750,15 +2779,15 @@
         <v>159</v>
       </c>
       <c r="K14" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
+      <c r="A15" s="76" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="B15" s="77" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>166</v>
       </c>
       <c r="C15" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2787,16 +2816,16 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="80"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A16" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2825,16 +2854,16 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K16" s="80"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A17" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2867,7 +2896,7 @@
       </c>
       <c r="K17" s="80"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
       <c r="C18" s="74" t="str">
@@ -2895,7 +2924,7 @@
       <c r="J18" s="81"/>
       <c r="K18" s="80"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1">
       <c r="A19" s="13"/>
       <c r="B19" s="77"/>
       <c r="C19" s="74"/>
@@ -2920,7 +2949,7 @@
       <c r="J19" s="81"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
       <c r="C20" s="74"/>
@@ -2945,7 +2974,7 @@
       <c r="J20" s="81"/>
       <c r="K20" s="80"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1">
       <c r="A21" s="13"/>
       <c r="B21" s="77"/>
       <c r="C21" s="74"/>
@@ -2970,7 +2999,7 @@
       <c r="J21" s="81"/>
       <c r="K21" s="80"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
       <c r="C22" s="74"/>
@@ -2995,7 +3024,7 @@
       <c r="J22" s="81"/>
       <c r="K22" s="80"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="77"/>
       <c r="C23" s="74"/>
@@ -3020,7 +3049,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
       <c r="C24" s="74"/>
@@ -3045,7 +3074,7 @@
       <c r="J24" s="81"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="13"/>
       <c r="B25" s="77"/>
       <c r="C25" s="74"/>
@@ -3070,7 +3099,7 @@
       <c r="J25" s="81"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
       <c r="C26" s="74"/>
@@ -3095,7 +3124,7 @@
       <c r="J26" s="81"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="A27" s="13"/>
       <c r="B27" s="77"/>
       <c r="C27" s="74"/>
@@ -3120,7 +3149,7 @@
       <c r="J27" s="81"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
       <c r="C28" s="74"/>
@@ -3145,7 +3174,7 @@
       <c r="J28" s="81"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="13"/>
       <c r="B29" s="82"/>
       <c r="C29" s="74"/>
@@ -3170,7 +3199,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="76"/>
       <c r="B30" s="28"/>
       <c r="C30" s="74"/>
@@ -3195,7 +3224,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1">
       <c r="A31" s="13"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -3220,7 +3249,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1">
       <c r="A32" s="13"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3245,7 +3274,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -3270,7 +3299,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -3295,7 +3324,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1">
       <c r="A35" s="13"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -3320,7 +3349,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1">
       <c r="A36" s="13"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -3345,7 +3374,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="13"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -3370,7 +3399,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -3395,7 +3424,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1">
       <c r="A39" s="13"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -3420,7 +3449,7 @@
       <c r="J39" s="23"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1">
       <c r="A40" s="13"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -3445,7 +3474,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1">
       <c r="A41" s="13"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3470,7 +3499,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="13"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -3495,7 +3524,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3520,7 +3549,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1">
       <c r="A44" s="13"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -3545,7 +3574,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1">
       <c r="A45" s="13"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -3570,7 +3599,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -3595,7 +3624,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1">
       <c r="A47" s="13"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -3620,7 +3649,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -3645,7 +3674,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1">
       <c r="A49" s="13"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -3670,7 +3699,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1">
       <c r="A50" s="13"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -3695,7 +3724,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1">
       <c r="A51" s="13"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -3720,7 +3749,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1">
       <c r="A52" s="13"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -3745,7 +3774,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -3770,7 +3799,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1">
       <c r="A54" s="13"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -3795,7 +3824,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1">
       <c r="A55" s="13"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -3820,7 +3849,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1">
       <c r="A56" s="13"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -3845,7 +3874,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1">
       <c r="A57" s="13"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -3870,7 +3899,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1">
       <c r="A58" s="13"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -3895,7 +3924,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -3920,7 +3949,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1">
       <c r="A60" s="13"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -3945,7 +3974,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1">
       <c r="A61" s="13"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -3970,7 +3999,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1">
       <c r="A62" s="13"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -3995,7 +4024,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4020,7 +4049,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4045,7 +4074,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -4070,7 +4099,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -4095,7 +4124,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -4120,7 +4149,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4145,7 +4174,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -4170,7 +4199,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -4195,7 +4224,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -4220,7 +4249,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -4245,7 +4274,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -4270,7 +4299,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -4295,7 +4324,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -4320,7 +4349,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -4345,7 +4374,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -4370,7 +4399,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -4395,7 +4424,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4420,7 +4449,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -4445,7 +4474,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4470,7 +4499,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -4495,7 +4524,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -4520,7 +4549,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -4545,7 +4574,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -4570,7 +4599,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -4595,7 +4624,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -4620,7 +4649,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -4645,7 +4674,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -4670,7 +4699,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -4695,7 +4724,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -4720,7 +4749,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -4745,7 +4774,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -4770,7 +4799,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -4795,7 +4824,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -4820,7 +4849,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -4845,7 +4874,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -4870,7 +4899,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -4895,7 +4924,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4920,7 +4949,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4945,7 +4974,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4970,7 +4999,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -4995,7 +5024,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5020,7 +5049,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5045,7 +5074,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5070,7 +5099,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5095,7 +5124,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5120,7 +5149,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5145,7 +5174,7 @@
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="12" customFormat="1">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -5222,7 +5251,7 @@
     <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5233,25 +5262,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
-    <col min="5" max="7" width="11" style="32"/>
+    <col min="1" max="1" width="72.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="32"/>
+    <col min="3" max="3" width="13.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="32" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="32"/>
     <col min="8" max="11" width="11" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="32"/>
+    <col min="12" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="100" t="s">
         <v>38</v>
       </c>
@@ -5261,7 +5290,7 @@
       <c r="E1" s="101"/>
       <c r="F1" s="102"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -5273,7 +5302,7 @@
       <c r="E2" s="105"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
@@ -5297,7 +5326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="40" t="s">
         <v>44</v>
       </c>
@@ -5325,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -5352,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
@@ -5374,7 +5403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
@@ -5401,7 +5430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="43" t="s">
         <v>53</v>
       </c>
@@ -5420,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
@@ -5458,7 +5487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="32" t="s">
         <v>32</v>
       </c>
@@ -5469,7 +5498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5480,7 +5509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="100" t="s">
         <v>41</v>
       </c>
@@ -5499,7 +5528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -5516,7 +5545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="40" t="s">
         <v>46</v>
       </c>
@@ -5534,7 +5563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>47</v>
       </c>
@@ -5558,7 +5587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -5579,7 +5608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="43" t="s">
         <v>48</v>
       </c>
@@ -5600,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="40" t="s">
         <v>10</v>
       </c>
@@ -5619,7 +5648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
@@ -5641,7 +5670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="32" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>CN</v>
@@ -5658,122 +5687,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="32">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="32">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="32">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="32">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="32">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="32">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="32">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="32">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="32">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="32">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="32" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5792,169 +5821,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5967,23 +6009,23 @@
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="32"/>
-    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="32"/>
+    <col min="5" max="5" width="11.6640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="11" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="32" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="32" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="32" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="32"/>
+    <col min="12" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="114" t="s">
         <v>56</v>
       </c>
@@ -6011,7 +6053,7 @@
       <c r="I1" s="115"/>
       <c r="J1" s="115"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="114"/>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -6029,7 +6071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="53" customFormat="1">
       <c r="A3" s="52" t="s">
         <v>69</v>
       </c>
@@ -6053,7 +6095,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="53" customFormat="1">
       <c r="A4" s="54" t="s">
         <v>57</v>
       </c>
@@ -6081,7 +6123,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="53" customFormat="1">
       <c r="A5" s="55" t="s">
         <v>77</v>
       </c>
@@ -6109,7 +6151,7 @@
       </c>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="53" customFormat="1">
       <c r="A6" s="54" t="s">
         <v>58</v>
       </c>
@@ -6141,7 +6183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A7" s="54" t="s">
         <v>80</v>
       </c>
@@ -6169,7 +6211,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A8" s="54" t="s">
         <v>82</v>
       </c>
@@ -6197,7 +6239,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="53" customFormat="1">
       <c r="A9" s="54" t="s">
         <v>84</v>
       </c>
@@ -6225,7 +6267,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="53" customFormat="1">
       <c r="A10" s="54" t="s">
         <v>86</v>
       </c>
@@ -6251,7 +6293,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A11" s="54" t="s">
         <v>89</v>
       </c>
@@ -6279,7 +6321,7 @@
       </c>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="53" customFormat="1">
       <c r="A12" s="54" t="s">
         <v>91</v>
       </c>
@@ -6307,7 +6349,7 @@
       </c>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="57" t="s">
         <v>93</v>
       </c>
@@ -6334,7 +6376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="57" t="s">
         <v>97</v>
       </c>
@@ -6358,7 +6400,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="57" t="s">
         <v>99</v>
       </c>
@@ -6385,7 +6427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="59" t="s">
         <v>103</v>
       </c>
@@ -6414,7 +6456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="54" t="s">
         <v>106</v>
       </c>
@@ -6443,12 +6485,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="64" t="s">
         <v>113</v>
       </c>
@@ -6461,7 +6503,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="67" t="s">
         <v>114</v>
       </c>
@@ -6474,7 +6516,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="67" t="s">
         <v>115</v>
       </c>
@@ -6487,7 +6529,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="67" t="s">
         <v>116</v>
       </c>
@@ -6500,7 +6542,7 @@
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="67" t="s">
         <v>117</v>
       </c>
@@ -6513,7 +6555,7 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="67" t="s">
         <v>118</v>
       </c>
@@ -6539,5 +6581,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-435" yWindow="-225" windowWidth="20490" windowHeight="7890" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -559,6 +559,9 @@
     <t>Imagen que diga 0,7 metros</t>
   </si>
   <si>
+    <t xml:space="preserve">Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original. </t>
+  </si>
+  <si>
     <t>Se debe agregar una v en el eje vertical y una t en el eje horizontal a la imagen original.</t>
   </si>
   <si>
@@ -578,28 +581,6 @@
   </si>
   <si>
     <t>Imagen que diga 3,1 metros</t>
-  </si>
-  <si>
-    <r>
-      <t>Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> By Grafico_pv_del_MRU.jpg: SergioN derivative work: Robot8A (Grafico_pv_del_MRU.jpg) [CC BY 3.0 (http://creativecommons.org/licenses/by/3.0) or GFDL (http://www.gnu.org/copyleft/fdl.html)], via Wikimedia Commons </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -609,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,11 +737,6 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Century Gothic"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1019,11 +995,11 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1032,7 +1008,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1040,17 +1016,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1060,7 +1036,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1068,12 +1044,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,18 +1058,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,11 +1099,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1137,10 +1113,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1150,7 +1126,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1224,16 +1200,16 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,23 +1217,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,7 +1251,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1328,9 +1304,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1638,11 +1613,8 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1694,7 +1666,6 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1781,15 +1752,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1822,15 +1793,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1863,15 +1834,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1906,13 +1877,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1945,15 +1916,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>825500</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,15 +1957,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2027,15 +1998,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2388,33 +2359,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="100.33203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="74.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="100.375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="74.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2426,7 +2397,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2443,7 +2414,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2460,7 +2431,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2481,7 +2452,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2503,7 +2474,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2516,7 +2487,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="34" t="s">
         <v>40</v>
@@ -2534,7 +2505,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="D8" s="11"/>
@@ -2553,7 +2524,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+    <row r="9" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
@@ -2588,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="94" customHeight="1">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>153</v>
       </c>
@@ -2624,11 +2595,11 @@
       <c r="J10" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="116" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
+      <c r="K10" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>154</v>
       </c>
@@ -2666,7 +2637,7 @@
       </c>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>157</v>
       </c>
@@ -2704,7 +2675,7 @@
       </c>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>160</v>
       </c>
@@ -2742,7 +2713,7 @@
       </c>
       <c r="K13" s="78"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>161</v>
       </c>
@@ -2779,15 +2750,15 @@
         <v>159</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2816,16 +2787,16 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K15" s="80"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="77" t="s">
         <v>166</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>165</v>
       </c>
       <c r="C16" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2854,16 +2825,16 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16" s="80"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="74" t="str">
         <f t="shared" si="2"/>
@@ -2896,7 +2867,7 @@
       </c>
       <c r="K17" s="80"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
       <c r="C18" s="74" t="str">
@@ -2924,7 +2895,7 @@
       <c r="J18" s="81"/>
       <c r="K18" s="80"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1">
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="77"/>
       <c r="C19" s="74"/>
@@ -2949,7 +2920,7 @@
       <c r="J19" s="81"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
       <c r="C20" s="74"/>
@@ -2974,7 +2945,7 @@
       <c r="J20" s="81"/>
       <c r="K20" s="80"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1">
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="77"/>
       <c r="C21" s="74"/>
@@ -2999,7 +2970,7 @@
       <c r="J21" s="81"/>
       <c r="K21" s="80"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="77"/>
       <c r="C22" s="74"/>
@@ -3024,7 +2995,7 @@
       <c r="J22" s="81"/>
       <c r="K22" s="80"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="77"/>
       <c r="C23" s="74"/>
@@ -3049,7 +3020,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="77"/>
       <c r="C24" s="74"/>
@@ -3074,7 +3045,7 @@
       <c r="J24" s="81"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="77"/>
       <c r="C25" s="74"/>
@@ -3099,7 +3070,7 @@
       <c r="J25" s="81"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
       <c r="C26" s="74"/>
@@ -3124,7 +3095,7 @@
       <c r="J26" s="81"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="77"/>
       <c r="C27" s="74"/>
@@ -3149,7 +3120,7 @@
       <c r="J27" s="81"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
       <c r="B28" s="77"/>
       <c r="C28" s="74"/>
@@ -3174,7 +3145,7 @@
       <c r="J28" s="81"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="82"/>
       <c r="C29" s="74"/>
@@ -3199,7 +3170,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="28"/>
       <c r="C30" s="74"/>
@@ -3224,7 +3195,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -3249,7 +3220,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3274,7 +3245,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -3299,7 +3270,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -3324,7 +3295,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -3349,7 +3320,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -3374,7 +3345,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -3399,7 +3370,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -3424,7 +3395,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -3449,7 +3420,7 @@
       <c r="J39" s="23"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -3474,7 +3445,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3499,7 +3470,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -3524,7 +3495,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3549,7 +3520,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -3574,7 +3545,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -3599,7 +3570,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -3624,7 +3595,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -3649,7 +3620,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -3674,7 +3645,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -3699,7 +3670,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -3724,7 +3695,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -3749,7 +3720,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -3774,7 +3745,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -3799,7 +3770,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -3824,7 +3795,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -3849,7 +3820,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -3874,7 +3845,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -3899,7 +3870,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -3924,7 +3895,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -3949,7 +3920,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -3974,7 +3945,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -3999,7 +3970,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -4024,7 +3995,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4049,7 +4020,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4074,7 +4045,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -4099,7 +4070,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -4124,7 +4095,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -4149,7 +4120,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4174,7 +4145,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -4199,7 +4170,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -4224,7 +4195,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -4249,7 +4220,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -4274,7 +4245,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -4299,7 +4270,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -4324,7 +4295,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -4349,7 +4320,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -4374,7 +4345,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -4399,7 +4370,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -4424,7 +4395,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4449,7 +4420,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -4474,7 +4445,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4499,7 +4470,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -4524,7 +4495,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -4549,7 +4520,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -4574,7 +4545,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -4599,7 +4570,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -4624,7 +4595,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -4649,7 +4620,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -4674,7 +4645,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -4699,7 +4670,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -4724,7 +4695,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -4749,7 +4720,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -4774,7 +4745,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -4799,7 +4770,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -4824,7 +4795,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -4849,7 +4820,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -4874,7 +4845,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -4899,7 +4870,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -4924,7 +4895,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4949,7 +4920,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4974,7 +4945,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4999,7 +4970,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5024,7 +4995,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5049,7 +5020,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5074,7 +5045,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5099,7 +5070,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5124,7 +5095,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5149,7 +5120,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5174,7 +5145,7 @@
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="1:11" s="12" customFormat="1">
+    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -5251,7 +5222,7 @@
     <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5262,25 +5233,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="32"/>
-    <col min="3" max="3" width="13.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="32" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="72.25" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11" style="32"/>
+    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
+    <col min="5" max="7" width="11" style="32"/>
     <col min="8" max="11" width="11" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="32"/>
+    <col min="12" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
         <v>38</v>
       </c>
@@ -5290,7 +5261,7 @@
       <c r="E1" s="101"/>
       <c r="F1" s="102"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -5302,7 +5273,7 @@
       <c r="E2" s="105"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +5297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>44</v>
       </c>
@@ -5354,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -5381,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
@@ -5430,7 +5401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>53</v>
       </c>
@@ -5449,7 +5420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
@@ -5487,7 +5458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="32" t="s">
         <v>32</v>
       </c>
@@ -5498,7 +5469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5509,7 +5480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>41</v>
       </c>
@@ -5528,7 +5499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -5545,7 +5516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>46</v>
       </c>
@@ -5563,7 +5534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.25" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>47</v>
       </c>
@@ -5587,7 +5558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -5608,7 +5579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>48</v>
       </c>
@@ -5629,7 +5600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>10</v>
       </c>
@@ -5648,7 +5619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
@@ -5670,7 +5641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="32" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>CN</v>
@@ -5687,122 +5658,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="32">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="32">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="32">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="32">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="32">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="32">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="32">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="32">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="32">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="32">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="32" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5821,182 +5792,169 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>825500</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6009,23 +5967,23 @@
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="32"/>
-    <col min="5" max="5" width="11.6640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="32"/>
+    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
     <col min="7" max="7" width="11" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="32" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="32"/>
+    <col min="12" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>56</v>
       </c>
@@ -6053,7 +6011,7 @@
       <c r="I1" s="115"/>
       <c r="J1" s="115"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="114"/>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -6071,7 +6029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="53" customFormat="1">
+    <row r="3" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>69</v>
       </c>
@@ -6095,7 +6053,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:11" s="53" customFormat="1">
+    <row r="4" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>57</v>
       </c>
@@ -6123,7 +6081,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="53" customFormat="1">
+    <row r="5" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>77</v>
       </c>
@@ -6151,7 +6109,7 @@
       </c>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:11" s="53" customFormat="1">
+    <row r="6" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>58</v>
       </c>
@@ -6183,7 +6141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>80</v>
       </c>
@@ -6211,7 +6169,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>82</v>
       </c>
@@ -6239,7 +6197,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:11" s="53" customFormat="1">
+    <row r="9" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>84</v>
       </c>
@@ -6267,7 +6225,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:11" s="53" customFormat="1">
+    <row r="10" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>86</v>
       </c>
@@ -6293,7 +6251,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>89</v>
       </c>
@@ -6321,7 +6279,7 @@
       </c>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:11" s="53" customFormat="1">
+    <row r="12" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>91</v>
       </c>
@@ -6349,7 +6307,7 @@
       </c>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>93</v>
       </c>
@@ -6376,7 +6334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>97</v>
       </c>
@@ -6400,7 +6358,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>99</v>
       </c>
@@ -6427,7 +6385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>103</v>
       </c>
@@ -6456,7 +6414,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>106</v>
       </c>
@@ -6485,12 +6443,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>113</v>
       </c>
@@ -6503,7 +6461,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>114</v>
       </c>
@@ -6516,7 +6474,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>115</v>
       </c>
@@ -6529,7 +6487,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>116</v>
       </c>
@@ -6542,7 +6500,7 @@
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>117</v>
       </c>
@@ -6555,7 +6513,7 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>118</v>
       </c>
@@ -6581,10 +6539,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2520" yWindow="2360" windowWidth="35880" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -581,16 +581,7 @@
   </si>
   <si>
     <r>
-      <t>Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">Se debe agregar una x en el eje vertical y una t en el eje horizontal a la imagen original. Adaptadapor el autor    </t>
     </r>
     <r>
       <rPr>
@@ -1553,6 +1544,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,9 +1631,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2392,8 +2383,8 @@
   <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2414,7 +2405,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2426,49 +2417,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="F2" s="84" t="s">
+      <c r="D2" s="93"/>
+      <c r="F2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="85"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="94">
         <v>10</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="F3" s="86">
+      <c r="D3" s="95"/>
+      <c r="F3" s="87">
         <v>42065</v>
       </c>
-      <c r="G3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="5"/>
       <c r="F4" s="49" t="s">
         <v>55</v>
@@ -2481,15 +2472,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="5"/>
       <c r="F5" s="47" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2503,7 +2494,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2534,17 +2525,17 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2553,7 +2544,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+    <row r="9" spans="1:16" ht="14" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
@@ -2624,7 +2615,7 @@
       <c r="J10" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="116" t="s">
+      <c r="K10" s="84" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2666,7 +2657,7 @@
       </c>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="12" spans="1:16" s="12" customFormat="1">
       <c r="A12" s="76" t="s">
         <v>157</v>
       </c>
@@ -2704,7 +2695,7 @@
       </c>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="13" spans="1:16" s="12" customFormat="1">
       <c r="A13" s="76" t="s">
         <v>160</v>
       </c>
@@ -2742,7 +2733,7 @@
       </c>
       <c r="K13" s="78"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A14" s="76" t="s">
         <v>161</v>
       </c>
@@ -2782,7 +2773,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="15" spans="1:16" s="12" customFormat="1">
       <c r="A15" s="76" t="s">
         <v>164</v>
       </c>
@@ -2820,7 +2811,7 @@
       </c>
       <c r="K15" s="80"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="12" customFormat="1">
       <c r="A16" s="76" t="s">
         <v>166</v>
       </c>
@@ -2858,7 +2849,7 @@
       </c>
       <c r="K16" s="80"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="17" spans="1:11" s="12" customFormat="1">
       <c r="A17" s="76" t="s">
         <v>167</v>
       </c>
@@ -5280,38 +5271,38 @@
     <col min="12" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="42"/>
       <c r="H3" s="32" t="s">
         <v>18</v>
@@ -5326,7 +5317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="40" t="s">
         <v>44</v>
       </c>
@@ -5354,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -5362,11 +5353,11 @@
       <c r="C5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="112" t="str">
+      <c r="D5" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>CN_10_02_CO</v>
       </c>
-      <c r="E5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="42"/>
       <c r="H5" s="32" t="s">
         <v>22</v>
@@ -5381,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
@@ -5411,12 +5402,12 @@
       <c r="C7" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="98" t="str">
+      <c r="D7" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_CN_10_02_CO.xls</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
       <c r="H7" s="32" t="s">
         <v>24</v>
       </c>
@@ -5430,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="43" t="s">
         <v>53</v>
       </c>
@@ -5449,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
@@ -5498,7 +5489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5510,14 +5501,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
       <c r="I13" s="32" t="s">
         <v>33</v>
       </c>
@@ -5528,7 +5519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -5550,12 +5541,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="J15" s="32">
         <v>12</v>
       </c>
@@ -5595,12 +5586,12 @@
       <c r="C17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="106" t="str">
+      <c r="D17" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>CN_10_02_REC10</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
       <c r="J17" s="32">
         <v>14</v>
       </c>
@@ -5608,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="43" t="s">
         <v>48</v>
       </c>
@@ -5616,12 +5607,12 @@
       <c r="C18" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="98" t="str">
+      <c r="D18" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_CN_10_02_REC10.xls</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="J18" s="32">
         <v>15</v>
       </c>
@@ -5648,7 +5639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
@@ -6004,7 +5995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -6026,41 +6017,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="51" t="s">
         <v>65</v>
       </c>
@@ -6183,7 +6174,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="28">
       <c r="A7" s="54" t="s">
         <v>80</v>
       </c>
@@ -6211,7 +6202,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="53" customFormat="1" ht="28">
       <c r="A8" s="54" t="s">
         <v>82</v>
       </c>
@@ -6293,7 +6284,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="53" customFormat="1" ht="28">
       <c r="A11" s="54" t="s">
         <v>89</v>
       </c>
@@ -6349,7 +6340,7 @@
       </c>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="57" t="s">
         <v>93</v>
       </c>
@@ -6400,7 +6391,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="57" t="s">
         <v>99</v>
       </c>
@@ -6427,7 +6418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="59" t="s">
         <v>103</v>
       </c>
@@ -6456,7 +6447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="54" t="s">
         <v>106</v>
       </c>
@@ -6529,7 +6520,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="67" t="s">
         <v>116</v>
       </c>
@@ -6555,7 +6546,7 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="67" t="s">
         <v>118</v>
       </c>
